--- a/tables/Table1.xlsx
+++ b/tables/Table1.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">Colour of transferred ball</t>
+    <t xml:space="preserve">Colour of ball drawn from Bag</t>
   </si>
   <si>
     <t xml:space="preserve">0 for red,1 for black</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Colour of drawn ball</t>
+    <t xml:space="preserve">Bag number from which ball is drawn</t>
   </si>
 </sst>
 </file>
@@ -59,6 +59,7 @@
       <color rgb="FF000000"/>
       <name val="Sans"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -147,13 +148,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.17"/>
   </cols>
   <sheetData>
@@ -168,7 +169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -179,7 +180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
